--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/tentativa/cv122053a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/tentativa/cv122053a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1.440290575031005</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1.425707901084489</v>
+      </c>
+      <c r="C5">
+        <v>1.453172251019553</v>
+      </c>
+      <c r="D5">
+        <v>1.476500656865177</v>
+      </c>
+      <c r="E5">
+        <v>3.260883277593786</v>
+      </c>
+      <c r="F5">
+        <v>2.19762882570847</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>1.425707901084489</v>
+        <v>5.483976683518989</v>
       </c>
       <c r="C6">
-        <v>1.453172251019553</v>
+        <v>5.65812424166035</v>
       </c>
       <c r="D6">
-        <v>1.476500656865177</v>
+        <v>5.610017955851102</v>
       </c>
       <c r="E6">
-        <v>3.260883277593786</v>
+        <v>20.16176870578781</v>
       </c>
       <c r="F6">
-        <v>2.19762882570847</v>
+        <v>8.923070540533718</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>5.483976683518989</v>
+        <v>4.953623500589017</v>
       </c>
       <c r="C7">
-        <v>5.65812424166035</v>
+        <v>4.992703533186761</v>
       </c>
       <c r="D7">
-        <v>5.610017955851102</v>
+        <v>4.88212776091094</v>
       </c>
       <c r="E7">
-        <v>20.16176870578781</v>
+        <v>9.498589507695783</v>
       </c>
       <c r="F7">
-        <v>8.923070540533718</v>
+        <v>6.354720589524871</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>8.779108754518214</v>
+      </c>
+      <c r="C8">
+        <v>9.140149151770249</v>
+      </c>
+      <c r="D8">
+        <v>9.671105626005032</v>
+      </c>
+      <c r="E8">
+        <v>22.39505764095471</v>
+      </c>
+      <c r="F8">
+        <v>12.13637497761032</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>4.953623500589017</v>
+        <v>15.79694136950789</v>
       </c>
       <c r="C9">
-        <v>4.992703533186761</v>
+        <v>19.54212082412489</v>
       </c>
       <c r="D9">
-        <v>4.88212776091094</v>
+        <v>19.83515109636298</v>
       </c>
       <c r="E9">
-        <v>9.498589507695783</v>
+        <v>40.99977972508353</v>
       </c>
       <c r="F9">
-        <v>6.354720589524871</v>
+        <v>16.37682643496737</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>8.779108754518214</v>
+        <v>11.59609862379099</v>
       </c>
       <c r="C10">
-        <v>9.140149151770249</v>
+        <v>11.81213110643645</v>
       </c>
       <c r="D10">
-        <v>9.671105626005032</v>
+        <v>11.51145469406494</v>
       </c>
       <c r="E10">
-        <v>22.39505764095471</v>
+        <v>22.09922881867141</v>
       </c>
       <c r="F10">
-        <v>12.13637497761032</v>
+        <v>16.11552590159681</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>15.79694136950789</v>
+        <v>11.47314760380918</v>
       </c>
       <c r="C11">
-        <v>19.54212082412489</v>
+        <v>11.91057166259444</v>
       </c>
       <c r="D11">
-        <v>19.83515109636298</v>
+        <v>12.66032251702489</v>
       </c>
       <c r="E11">
-        <v>40.99977972508353</v>
+        <v>20.89378477283343</v>
       </c>
       <c r="F11">
-        <v>16.37682643496737</v>
+        <v>16.79059089763164</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>11.59609862379099</v>
+        <v>7.678194976058522</v>
       </c>
       <c r="C12">
-        <v>11.81213110643645</v>
+        <v>7.525815346260898</v>
       </c>
       <c r="D12">
-        <v>11.51145469406494</v>
+        <v>7.299111761603223</v>
       </c>
       <c r="E12">
-        <v>22.09922881867141</v>
+        <v>13.50771208894223</v>
       </c>
       <c r="F12">
-        <v>16.11552590159681</v>
+        <v>10.30823831434562</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>11.47314760380918</v>
+        <v>16.42941918203106</v>
       </c>
       <c r="C13">
-        <v>11.91057166259444</v>
+        <v>16.03983339006595</v>
       </c>
       <c r="D13">
-        <v>12.66032251702489</v>
+        <v>16.02143211514799</v>
       </c>
       <c r="E13">
-        <v>20.89378477283343</v>
+        <v>27.09588149718126</v>
       </c>
       <c r="F13">
-        <v>16.79059089763164</v>
+        <v>19.90330833667426</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>7.678194976058522</v>
+        <v>13.69623095554915</v>
       </c>
       <c r="C14">
-        <v>7.525815346260898</v>
+        <v>15.77036897285463</v>
       </c>
       <c r="D14">
-        <v>7.299111761603223</v>
+        <v>17.01005611625845</v>
       </c>
       <c r="E14">
-        <v>13.50771208894223</v>
+        <v>27.24805284074894</v>
       </c>
       <c r="F14">
-        <v>10.30823831434562</v>
+        <v>13.07314789784039</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>16.42941918203106</v>
+        <v>2.671322278682676</v>
       </c>
       <c r="C15">
-        <v>16.03983339006595</v>
+        <v>2.674208831853302</v>
       </c>
       <c r="D15">
-        <v>16.02143211514799</v>
+        <v>2.826341529280464</v>
       </c>
       <c r="E15">
-        <v>27.09588149718126</v>
+        <v>4.80878969013254</v>
       </c>
       <c r="F15">
-        <v>19.90330833667426</v>
+        <v>3.94528636873335</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>13.69623095554915</v>
+        <v>14.84341115266662</v>
       </c>
       <c r="C16">
-        <v>15.77036897285463</v>
+        <v>11.71635309977105</v>
       </c>
       <c r="D16">
-        <v>17.01005611625845</v>
+        <v>12.24586993712645</v>
       </c>
       <c r="E16">
-        <v>27.24805284074894</v>
+        <v>19.26021280203188</v>
       </c>
       <c r="F16">
-        <v>13.07314789784039</v>
+        <v>23.2559306128391</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>2.671322278682676</v>
+        <v>14.53299502583249</v>
       </c>
       <c r="C17">
-        <v>2.674208831853302</v>
+        <v>15.34843114738377</v>
       </c>
       <c r="D17">
-        <v>2.826341529280464</v>
+        <v>15.4167957252512</v>
       </c>
       <c r="E17">
-        <v>4.80878969013254</v>
+        <v>31.17253699852748</v>
       </c>
       <c r="F17">
-        <v>3.94528636873335</v>
+        <v>20.54154975248566</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>14.84341115266662</v>
+        <v>4.566906882314461</v>
       </c>
       <c r="C18">
-        <v>11.71635309977105</v>
+        <v>4.817475631320958</v>
       </c>
       <c r="D18">
-        <v>12.24586993712645</v>
+        <v>5.116519800950227</v>
       </c>
       <c r="E18">
-        <v>19.26021280203188</v>
+        <v>9.086045187748317</v>
       </c>
       <c r="F18">
-        <v>23.2559306128391</v>
+        <v>6.713199484227466</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>14.53299502583249</v>
+        <v>7.229802991765909</v>
       </c>
       <c r="C19">
-        <v>15.34843114738377</v>
+        <v>8.579285981251768</v>
       </c>
       <c r="D19">
-        <v>15.4167957252512</v>
+        <v>9.405348021138282</v>
       </c>
       <c r="E19">
-        <v>31.17253699852748</v>
+        <v>14.1253305592454</v>
       </c>
       <c r="F19">
-        <v>20.54154975248566</v>
+        <v>11.19389291414905</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>4.566906882314461</v>
+        <v>9.69422194094302</v>
       </c>
       <c r="C20">
-        <v>4.817475631320958</v>
+        <v>9.282004558627488</v>
       </c>
       <c r="D20">
-        <v>5.116519800950227</v>
+        <v>9.205861105000821</v>
       </c>
       <c r="E20">
-        <v>9.086045187748317</v>
+        <v>23.18335270756362</v>
       </c>
       <c r="F20">
-        <v>6.713199484227466</v>
+        <v>15.23944819974844</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>7.229802991765909</v>
+        <v>5.348424452860407</v>
       </c>
       <c r="C21">
-        <v>8.579285981251768</v>
+        <v>6.481262755658149</v>
       </c>
       <c r="D21">
-        <v>9.405348021138282</v>
+        <v>7.141881762210311</v>
       </c>
       <c r="E21">
-        <v>14.1253305592454</v>
+        <v>10.61699277402633</v>
       </c>
       <c r="F21">
-        <v>11.19389291414905</v>
+        <v>6.927025599850232</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>9.69422194094302</v>
+        <v>12.77286649985641</v>
       </c>
       <c r="C22">
-        <v>9.282004558627488</v>
+        <v>12.2093622487871</v>
       </c>
       <c r="D22">
-        <v>9.205861105000821</v>
+        <v>11.84606968221826</v>
       </c>
       <c r="E22">
-        <v>23.18335270756362</v>
+        <v>33.96444050684794</v>
       </c>
       <c r="F22">
-        <v>15.23944819974844</v>
+        <v>17.37736782481852</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>5.348424452860407</v>
+        <v>7.304450220989305</v>
       </c>
       <c r="C23">
-        <v>6.481262755658149</v>
+        <v>8.222785950137229</v>
       </c>
       <c r="D23">
-        <v>7.141881762210311</v>
+        <v>9.529910608315703</v>
       </c>
       <c r="E23">
-        <v>10.61699277402633</v>
+        <v>16.83994667790364</v>
       </c>
       <c r="F23">
-        <v>6.927025599850232</v>
+        <v>8.899523660209846</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>12.77286649985641</v>
+        <v>5.222039048775633</v>
       </c>
       <c r="C24">
-        <v>12.2093622487871</v>
+        <v>5.610451167957747</v>
       </c>
       <c r="D24">
-        <v>11.84606968221826</v>
+        <v>5.84449612311569</v>
       </c>
       <c r="E24">
-        <v>33.96444050684794</v>
+        <v>9.548514134310267</v>
       </c>
       <c r="F24">
-        <v>17.37736782481852</v>
+        <v>6.864603816296642</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>7.304450220989305</v>
+        <v>2.510586971305684</v>
       </c>
       <c r="C25">
-        <v>8.222785950137229</v>
+        <v>2.592410280437253</v>
       </c>
       <c r="D25">
-        <v>9.529910608315703</v>
+        <v>2.632134310320407</v>
       </c>
       <c r="E25">
-        <v>16.83994667790364</v>
+        <v>6.032249780064503</v>
       </c>
       <c r="F25">
-        <v>8.899523660209846</v>
+        <v>3.930159317141602</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>5.222039048775633</v>
+        <v>4.687770414397508</v>
       </c>
       <c r="C26">
-        <v>5.610451167957747</v>
+        <v>5.289518318989056</v>
       </c>
       <c r="D26">
-        <v>5.84449612311569</v>
+        <v>5.461447154167769</v>
       </c>
       <c r="E26">
-        <v>9.548514134310267</v>
+        <v>10.6602805898142</v>
       </c>
       <c r="F26">
-        <v>6.864603816296642</v>
+        <v>6.416269046151459</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>2.510586971305684</v>
+        <v>8.839237067717818</v>
       </c>
       <c r="C27">
-        <v>2.592410280437253</v>
+        <v>9.276170754884506</v>
       </c>
       <c r="D27">
-        <v>2.632134310320407</v>
+        <v>9.788901164739977</v>
       </c>
       <c r="E27">
-        <v>6.032249780064503</v>
+        <v>23.05299245274503</v>
       </c>
       <c r="F27">
-        <v>3.930159317141602</v>
+        <v>15.21229802721911</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>4.687770414397508</v>
+        <v>4.454684999137527</v>
       </c>
       <c r="C28">
-        <v>5.289518318989056</v>
+        <v>4.616393969168072</v>
       </c>
       <c r="D28">
-        <v>5.461447154167769</v>
+        <v>4.627391175605534</v>
       </c>
       <c r="E28">
-        <v>10.6602805898142</v>
+        <v>13.77420003146829</v>
       </c>
       <c r="F28">
-        <v>6.416269046151459</v>
+        <v>7.112034145583191</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>8.839237067717818</v>
+        <v>3.725311278034625</v>
       </c>
       <c r="C29">
-        <v>9.276170754884506</v>
+        <v>3.77752381683424</v>
       </c>
       <c r="D29">
-        <v>9.788901164739977</v>
+        <v>3.840665850253547</v>
       </c>
       <c r="E29">
-        <v>23.05299245274503</v>
+        <v>8.40432860290302</v>
       </c>
       <c r="F29">
-        <v>15.21229802721911</v>
+        <v>5.888811713057735</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>4.454684999137527</v>
+        <v>3.303817620633207</v>
       </c>
       <c r="C30">
-        <v>4.616393969168072</v>
+        <v>3.27199458972484</v>
       </c>
       <c r="D30">
-        <v>4.627391175605534</v>
+        <v>3.392293004445226</v>
       </c>
       <c r="E30">
-        <v>13.77420003146829</v>
+        <v>8.557551712644496</v>
       </c>
       <c r="F30">
-        <v>7.112034145583191</v>
+        <v>5.564683524159689</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>3.725311278034625</v>
+        <v>4.455769986145647</v>
       </c>
       <c r="C31">
-        <v>3.77752381683424</v>
+        <v>4.670952119148435</v>
       </c>
       <c r="D31">
-        <v>3.840665850253547</v>
+        <v>4.791996746482199</v>
       </c>
       <c r="E31">
-        <v>8.40432860290302</v>
+        <v>12.69996561078309</v>
       </c>
       <c r="F31">
-        <v>5.888811713057735</v>
+        <v>7.300257289073174</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>3.303817620633207</v>
+        <v>11.39103573358611</v>
       </c>
       <c r="C32">
-        <v>3.27199458972484</v>
+        <v>11.0908626111518</v>
       </c>
       <c r="D32">
-        <v>3.392293004445226</v>
+        <v>11.25190553686002</v>
       </c>
       <c r="E32">
-        <v>8.557551712644496</v>
+        <v>36.25621055515103</v>
       </c>
       <c r="F32">
-        <v>5.564683524159689</v>
+        <v>18.54270887918541</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>4.455769986145647</v>
+        <v>4.760998596449217</v>
       </c>
       <c r="C33">
-        <v>4.670952119148435</v>
+        <v>4.402290952888996</v>
       </c>
       <c r="D33">
-        <v>4.791996746482199</v>
+        <v>4.625472148029195</v>
       </c>
       <c r="E33">
-        <v>12.69996561078309</v>
+        <v>11.19573583151037</v>
       </c>
       <c r="F33">
-        <v>7.300257289073174</v>
+        <v>8.54041006590804</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>11.39103573358611</v>
+        <v>3.368961791200909</v>
       </c>
       <c r="C34">
-        <v>11.0908626111518</v>
+        <v>3.445446533892705</v>
       </c>
       <c r="D34">
-        <v>11.25190553686002</v>
+        <v>3.434349751167218</v>
       </c>
       <c r="E34">
-        <v>36.25621055515103</v>
+        <v>8.051005617666826</v>
       </c>
       <c r="F34">
-        <v>18.54270887918541</v>
+        <v>5.323308630748175</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>4.760998596449217</v>
+        <v>15.45814958363711</v>
       </c>
       <c r="C35">
-        <v>4.402290952888996</v>
+        <v>15.60356892828725</v>
       </c>
       <c r="D35">
-        <v>4.625472148029195</v>
+        <v>14.80146883718741</v>
       </c>
       <c r="E35">
-        <v>11.19573583151037</v>
+        <v>32.07010118934335</v>
       </c>
       <c r="F35">
-        <v>8.54041006590804</v>
+        <v>19.97551377578925</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>3.368961791200909</v>
+        <v>6.518166846612028</v>
       </c>
       <c r="C36">
-        <v>3.445446533892705</v>
+        <v>6.698559147360524</v>
       </c>
       <c r="D36">
-        <v>3.434349751167218</v>
+        <v>6.639828467726351</v>
       </c>
       <c r="E36">
-        <v>8.051005617666826</v>
+        <v>25.17798357829792</v>
       </c>
       <c r="F36">
-        <v>5.323308630748175</v>
+        <v>11.18823050064509</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>15.45814958363711</v>
+        <v>5.08302107750314</v>
       </c>
       <c r="C37">
-        <v>15.60356892828725</v>
+        <v>5.148544110168318</v>
       </c>
       <c r="D37">
-        <v>14.80146883718741</v>
+        <v>5.178071880455929</v>
       </c>
       <c r="E37">
-        <v>32.07010118934335</v>
+        <v>11.25117111061672</v>
       </c>
       <c r="F37">
-        <v>19.97551377578925</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>6.518166846612028</v>
-      </c>
-      <c r="C38">
-        <v>6.698559147360524</v>
-      </c>
-      <c r="D38">
-        <v>6.639828467726351</v>
-      </c>
-      <c r="E38">
-        <v>25.17798357829792</v>
-      </c>
-      <c r="F38">
-        <v>11.18823050064509</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>5.08302107750314</v>
-      </c>
-      <c r="C39">
-        <v>5.148544110168318</v>
-      </c>
-      <c r="D39">
-        <v>5.178071880455929</v>
-      </c>
-      <c r="E39">
-        <v>11.25117111061672</v>
-      </c>
-      <c r="F39">
         <v>8.796148092470775</v>
       </c>
     </row>
